--- a/data/5_results/tmj/result_tmj_1.xlsx
+++ b/data/5_results/tmj/result_tmj_1.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="4" customWidth="1" min="9" max="9"/>
     <col width="4" customWidth="1" min="10" max="10"/>
@@ -506,31 +506,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02</v>
+        <v>0.8795203518867493</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +540,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02</v>
+        <v>0.7581941974163056</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -574,31 +574,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02</v>
+        <v>0.7483738589286805</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -608,31 +608,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0320934271812439</v>
+        <v>1.279806079864502</v>
       </c>
       <c r="F5" t="n">
+        <v>39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>78</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -642,31 +642,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02</v>
+        <v>0.9531019306182862</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -676,25 +676,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02</v>
+        <v>0.8194249141216278</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -744,31 +744,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02</v>
+        <v>0.7248637056350709</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
+        <v>74</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -778,31 +778,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02</v>
+        <v>0.75</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02</v>
+        <v>0.7422680412371135</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02</v>
+        <v>0.7411688780784607</v>
       </c>
       <c r="F10" t="n">
+        <v>38</v>
+      </c>
+      <c r="G10" t="n">
+        <v>76</v>
+      </c>
+      <c r="H10" t="n">
+        <v>36</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,31 +812,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02</v>
+        <v>0.660493197441101</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02</v>
+        <v>0.7032967032967032</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02</v>
+        <v>0.64</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -880,31 +880,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0342302942276001</v>
+        <v>1.138667925000191</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -914,31 +914,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02</v>
+        <v>0.6002466011047364</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -948,31 +948,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03356739282608032</v>
+        <v>0.6533580100536347</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02</v>
+        <v>0.6646380376815796</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1016,31 +1016,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.525</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.4463645672798157</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1050,31 +1050,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.7493476182222366</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.8111864125728607</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -1118,31 +1118,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03544746875762939</v>
+        <v>0.8088736236095428</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1152,31 +1152,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02665763378143311</v>
+        <v>0.6465195417404175</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -1186,31 +1186,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.800661381483078</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -1220,303 +1220,745 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3004931974411011</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hearing_loss_present</t>
+          <t>muscle_pain_score</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02</v>
+        <v>0.2271696186065674</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>headache_frequency</t>
+          <t>hearing_loss_present</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02</v>
+        <v>0.5227272727272726</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sleep_disorder_type</t>
+          <t>jaw_clicking</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3395186352729798</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>maximum_opening_without_pain</t>
+          <t>headache_frequency</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.3142051434516906</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>neck_pain_present</t>
+          <t>sleep_disorder_type</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.4130891227722168</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_appliance</t>
+          <t>maximum_opening_without_pain</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.1292637062072754</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>onset_triggers</t>
+          <t>neck_pain_present</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>current_appliance</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.05154661178588867</v>
+      </c>
+      <c r="F31" t="n">
+        <v>16</v>
+      </c>
+      <c r="G31" t="n">
+        <v>32</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>onset_triggers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.05000000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.09608345985412597</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12</v>
+      </c>
+      <c r="G32" t="n">
+        <v>24</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>physical_therapy_status</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>adverse_reactions</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1401563382148743</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13</v>
+      </c>
+      <c r="G34" t="n">
+        <v>26</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>jaw_crepitus</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>jaw_locking</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="B36" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.04210526315789474</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" t="n">
+        <v>14</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>pain_relieving_factors</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0286058521270752</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>back_pain_present</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>12</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sleep_apnea_diagnosed</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>14</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>autoimmune_condition</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>migraine_history</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>previous_medications</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>pain_duration</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>fibromyalgia_present</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1539,8 +1981,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1567,10 +2009,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.009333333333333334</v>
+        <v>0.3091743926853218</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01076923076923077</v>
+        <v>0.4542187061209333</v>
       </c>
     </row>
     <row r="3">
@@ -1580,10 +2022,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009333333333333334</v>
+        <v>0.3294125234383609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01076923076923077</v>
+        <v>0.4822975706655239</v>
       </c>
     </row>
     <row r="4">
@@ -1593,10 +2035,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009333333333333334</v>
+        <v>0.3172715045729723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01076923076923077</v>
+        <v>0.4657090845544868</v>
       </c>
     </row>
     <row r="5">
@@ -1606,10 +2048,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01473320722579956</v>
+        <v>0.4391847097319225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01699985449130718</v>
+        <v>0.6308639143719503</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +2128,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
